--- a/python-excel-kadai/sales.xlsx
+++ b/python-excel-kadai/sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>日付</t>
   </si>
@@ -28,6 +28,12 @@
     <t>部門</t>
   </si>
   <si>
+    <t>平均売上</t>
+  </si>
+  <si>
+    <t>業績ランク</t>
+  </si>
+  <si>
     <t>2023-05-17</t>
   </si>
   <si>
@@ -65,6 +71,15 @@
   </si>
   <si>
     <t>商社</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -422,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,75 +456,111 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>150</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
       <c r="C5">
         <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
